--- a/Arizona/WaterAllocation/AZwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Arizona/WaterAllocation/AZwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Arizona\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E4BB9B-7A57-46B4-905B-41F970A970C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CF2618-0171-4E2C-91BF-49603ACC4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="714" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="4" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -1187,6 +1187,17 @@
   <si>
     <t>STATUS
 -</t>
+  </si>
+  <si>
+    <t>'SW Query Watersheds
+'-</t>
+  </si>
+  <si>
+    <t>SOURCE
+-</t>
+  </si>
+  <si>
+    <t>We will try and use "SOURCE" as a ws name, but about 5% of the given names relate to a gw.  We will temp fix not incdlue those 5% names.</t>
   </si>
 </sst>
 </file>
@@ -2537,7 +2548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
@@ -4015,9 +4026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4238,7 +4249,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -4254,14 +4265,14 @@
       <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>37</v>
+      <c r="F7" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="I7" s="78" t="s">
         <v>37</v>
@@ -4375,7 +4386,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5230,8 +5241,8 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Arizona/WaterAllocation/AZwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Arizona/WaterAllocation/AZwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Arizona\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CF2618-0171-4E2C-91BF-49603ACC4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7763918B-F410-412B-B7A3-9D7858B84596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="4" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sites" sheetId="5" r:id="rId6"/>
     <sheet name="AllocationsAmounts_fact" sheetId="7" r:id="rId7"/>
     <sheet name="Misc" sheetId="9" r:id="rId8"/>
+    <sheet name="Definitions" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="431">
   <si>
     <t>Name</t>
   </si>
@@ -1097,67 +1098,120 @@
 'Groundwater</t>
   </si>
   <si>
+    <t>*convert from UTM 12N to WGS 84.</t>
+  </si>
+  <si>
+    <t>POU_POD
+-</t>
+  </si>
+  <si>
+    <t>for gw, just POD</t>
+  </si>
+  <si>
+    <t>*convert from annum to cfs,</t>
+  </si>
+  <si>
+    <t>fillings.shp
+-</t>
+  </si>
+  <si>
+    <t>AZwr_V1</t>
+  </si>
+  <si>
+    <t>'SW Query Watersheds
+'-</t>
+  </si>
+  <si>
+    <t>We will try and use "SOURCE" as a ws name, but about 5% of the given names relate to a gw.  We will temp fix not incdlue those 5% names.</t>
+  </si>
+  <si>
+    <t>SOURCE/TYPE
+-</t>
+  </si>
+  <si>
+    <t>fillings.shp
+Well_Registry</t>
+  </si>
+  <si>
+    <t>wade_lattitude
+-</t>
+  </si>
+  <si>
+    <t>wade_longitude
+-</t>
+  </si>
+  <si>
     <t>COUNTY
 COUNTY</t>
   </si>
   <si>
+    <t>CADASTRAL
+CADASTRAL</t>
+  </si>
+  <si>
     <t>SW Query Watersheds
 Well_Registry</t>
   </si>
   <si>
-    <t>Y_UTMNAD83
+    <t>POU_POD + CADASTRAL
+"POD" + CADASTRAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CADASTRAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Public Land Survey System (PLSS) description specifying the legal land location of the point of diversion or delivery, typically including township, range, section, and quarter-section details.</t>
+    </r>
+  </si>
+  <si>
+    <t>WaDE Blank
+"Well" for gw</t>
+  </si>
+  <si>
+    <t>QUANTITY
+PUMPRATE</t>
+  </si>
+  <si>
+    <t>STATUS
 -</t>
-  </si>
-  <si>
-    <t>X_UTMNAD83
--</t>
-  </si>
-  <si>
-    <t>*convert from UTM 12N to WGS 84.</t>
   </si>
   <si>
     <t>SW Query Watersheds
 -</t>
   </si>
   <si>
-    <t>POU_POD
+    <t>REG. NO
+PROGRAM + REGISTRY_I</t>
+  </si>
+  <si>
+    <t>-
+For gw, leave blank</t>
+  </si>
+  <si>
+    <t>PRIOR DATE
 -</t>
-  </si>
-  <si>
-    <t>for gw, just POD</t>
-  </si>
-  <si>
-    <t>CADASTRAL
-CADASTRAL</t>
-  </si>
-  <si>
-    <t>POU_POD + CADASTRAL
-"POD" + CADASTRAL</t>
-  </si>
-  <si>
-    <t>WaDE Blank
-"Well" for gw</t>
-  </si>
-  <si>
-    <t>QUANTITY
-PUMPRATE</t>
-  </si>
-  <si>
-    <t>*convert from annum to cfs,</t>
   </si>
   <si>
     <t>NAME
 'OWNER_NAME</t>
   </si>
   <si>
-    <t>PRIOR DATE
--</t>
-  </si>
-  <si>
-    <t>-
-For gw, leave blank</t>
-  </si>
-  <si>
     <t>WATER USE
 'WATER USE</t>
   </si>
@@ -1166,38 +1220,194 @@
 1, for gw</t>
   </si>
   <si>
-    <t>*might be able to use PERMIT NO, but it's not always avaiable, for sw
-'use link + registry_id, for gw</t>
-  </si>
-  <si>
-    <t>REG. NO
-PROGRAM + REGISTRY_I</t>
-  </si>
-  <si>
-    <t>fillings.shp
-Well_Registry</t>
-  </si>
-  <si>
-    <t>fillings.shp
--</t>
-  </si>
-  <si>
-    <t>AZwr_V1</t>
-  </si>
-  <si>
-    <t>STATUS
--</t>
-  </si>
-  <si>
-    <t>'SW Query Watersheds
-'-</t>
-  </si>
-  <si>
-    <t>SOURCE
--</t>
-  </si>
-  <si>
-    <t>We will try and use "SOURCE" as a ws name, but about 5% of the given names relate to a gw.  We will temp fix not incdlue those 5% names.</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>monitoring well</t>
+  </si>
+  <si>
+    <t>exempt well</t>
+  </si>
+  <si>
+    <t>non-exempt well</t>
+  </si>
+  <si>
+    <t>production well</t>
+  </si>
+  <si>
+    <t>exploration well</t>
+  </si>
+  <si>
+    <t>test well</t>
+  </si>
+  <si>
+    <t>observation well</t>
+  </si>
+  <si>
+    <t>irrigation well</t>
+  </si>
+  <si>
+    <t>domestic well</t>
+  </si>
+  <si>
+    <t>municipal well</t>
+  </si>
+  <si>
+    <t>stock well</t>
+  </si>
+  <si>
+    <t>artesian well</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>seep</t>
+  </si>
+  <si>
+    <t>subsurface</t>
+  </si>
+  <si>
+    <t>borehole</t>
+  </si>
+  <si>
+    <t>injection well</t>
+  </si>
+  <si>
+    <t>recharge well</t>
+  </si>
+  <si>
+    <t>vadose zone well</t>
+  </si>
+  <si>
+    <t>dewatering well</t>
+  </si>
+  <si>
+    <t>groundwater</t>
+  </si>
+  <si>
+    <t>aquifer</t>
+  </si>
+  <si>
+    <t>aquifer storage</t>
+  </si>
+  <si>
+    <t>aquifer recharge</t>
+  </si>
+  <si>
+    <t>wellfield</t>
+  </si>
+  <si>
+    <t>well field</t>
+  </si>
+  <si>
+    <t>"well",</t>
+  </si>
+  <si>
+    <t>"wells",</t>
+  </si>
+  <si>
+    <t>"subsurface",</t>
+  </si>
+  <si>
+    <t>"sub-surface",</t>
+  </si>
+  <si>
+    <t>"subterranean",</t>
+  </si>
+  <si>
+    <t>"underground"</t>
+  </si>
+  <si>
+    <t>"monitoring well",</t>
+  </si>
+  <si>
+    <t>"exempt well",</t>
+  </si>
+  <si>
+    <t>"non-exempt well",</t>
+  </si>
+  <si>
+    <t>"production well",</t>
+  </si>
+  <si>
+    <t>"exploration well",</t>
+  </si>
+  <si>
+    <t>"test well",</t>
+  </si>
+  <si>
+    <t>"observation well",</t>
+  </si>
+  <si>
+    <t>"irrigation well",</t>
+  </si>
+  <si>
+    <t>"domestic well",</t>
+  </si>
+  <si>
+    <t>"municipal well",</t>
+  </si>
+  <si>
+    <t>"stock well",</t>
+  </si>
+  <si>
+    <t>"artesian well",</t>
+  </si>
+  <si>
+    <t>"draw",</t>
+  </si>
+  <si>
+    <t>"spring",</t>
+  </si>
+  <si>
+    <t>"seep",</t>
+  </si>
+  <si>
+    <t>"borehole",</t>
+  </si>
+  <si>
+    <t>"injection well",</t>
+  </si>
+  <si>
+    <t>"recharge well",</t>
+  </si>
+  <si>
+    <t>"vadose zone well",</t>
+  </si>
+  <si>
+    <t>"aquifer",</t>
+  </si>
+  <si>
+    <t>"aquifer recharge",</t>
+  </si>
+  <si>
+    <t>"wellfield",</t>
+  </si>
+  <si>
+    <t>"well field",</t>
+  </si>
+  <si>
+    <t>Arizona water law and water rights administration intentionally tracks certain groundwater uses as “surface water rights” or integrates them for management.</t>
+  </si>
+  <si>
+    <t>REG. NO. / Registry ID gets into the number of their program.
+33-	Stockpond Permit
+34-	Instream Flow Filings
+36-	Surface Water Right Applications
+38-	Certificates of Water Right (approved apps)
+55-	Well Registration Number (Non-Exempt / Exempt Wells)
+56-	Notice of Intent (NOI) to Drill a Well
+57-	Replacement Well Registration
+58-	Well Abandonment Registration
+59-	Monitoring Well Registration
+5-	Older format / general well registration</t>
+  </si>
+  <si>
+    <t>*There is a well registry (55-series) online, which will work for gw records as a native url.</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +2143,7 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2190,6 +2400,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2546,11 +2759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2692,6 +2905,22 @@
       <c r="B18" t="s">
         <v>294</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="89" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="89"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,7 +3491,7 @@
         <v>37</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>37</v>
@@ -4026,9 +4255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4266,13 +4495,13 @@
         <v>37</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="I7" s="78" t="s">
         <v>37</v>
@@ -4385,8 +4614,8 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4634,7 +4863,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -4652,10 +4881,10 @@
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="I8" s="80" t="s">
         <v>37</v>
@@ -4832,7 +5061,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
@@ -4849,13 +5078,13 @@
         <v>37</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I14" s="80" t="s">
         <v>37</v>
@@ -4867,7 +5096,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
@@ -4884,13 +5113,13 @@
         <v>37</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="I15" s="80" t="s">
         <v>37</v>
@@ -4985,13 +5214,13 @@
         <v>37</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I18" s="80" t="s">
         <v>37</v>
@@ -5038,7 +5267,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>49</v>
       </c>
@@ -5055,13 +5284,13 @@
         <v>37</v>
       </c>
       <c r="F20" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>364</v>
-      </c>
       <c r="H20" s="42" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="I20" s="80" t="s">
         <v>37</v>
@@ -5106,7 +5335,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
         <v>52</v>
       </c>
@@ -5123,7 +5352,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>37</v>
@@ -5240,9 +5469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5876,7 +6105,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
         <v>121</v>
       </c>
@@ -5893,13 +6122,13 @@
         <v>37</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="I20" s="67" t="s">
         <v>37</v>
@@ -5911,7 +6140,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
         <v>84</v>
       </c>
@@ -5931,10 +6160,10 @@
         <v>37</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I21" s="67" t="s">
         <v>37</v>
@@ -5946,7 +6175,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="32" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
         <v>81</v>
       </c>
@@ -5966,10 +6195,10 @@
         <v>316</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I22" s="67" t="s">
         <v>37</v>
@@ -5981,7 +6210,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
         <v>82</v>
       </c>
@@ -6001,10 +6230,10 @@
         <v>37</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="I23" s="67" t="s">
         <v>37</v>
@@ -6016,7 +6245,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
         <v>124</v>
       </c>
@@ -6033,13 +6262,13 @@
         <v>19</v>
       </c>
       <c r="F24" s="88" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="I24" s="67" t="s">
         <v>37</v>
@@ -6185,7 +6414,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="61" t="s">
         <v>112</v>
       </c>
@@ -6205,10 +6434,10 @@
         <v>37</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="I29" s="67" t="s">
         <v>37</v>
@@ -6336,7 +6565,7 @@
         <v>37</v>
       </c>
       <c r="F33" s="70">
-        <v>47543</v>
+        <v>45847</v>
       </c>
       <c r="G33" s="52" t="s">
         <v>37</v>
@@ -6387,7 +6616,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
         <v>126</v>
       </c>
@@ -6404,7 +6633,7 @@
         <v>37</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G35" s="52" t="s">
         <v>37</v>
@@ -6721,7 +6950,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>95</v>
       </c>
@@ -6738,7 +6967,7 @@
         <v>37</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="G45" s="52" t="s">
         <v>37</v>
@@ -6795,16 +7024,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
@@ -6967,6 +7196,258 @@
         <v>336</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>373</v>
+      </c>
+      <c r="B35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>375</v>
+      </c>
+      <c r="B37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>379</v>
+      </c>
+      <c r="B41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>382</v>
+      </c>
+      <c r="B44" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>383</v>
+      </c>
+      <c r="B45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>389</v>
+      </c>
+      <c r="B51" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>391</v>
+      </c>
+      <c r="B53" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>392</v>
+      </c>
+      <c r="B54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>393</v>
+      </c>
+      <c r="B55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>395</v>
+      </c>
+      <c r="B57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>397</v>
+      </c>
+      <c r="B59" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>398</v>
+      </c>
+      <c r="B60" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:B61">
+    <sortCondition ref="B33:B61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FADDC1-4C0A-4DA2-88A4-1C591000FFCF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
